--- a/Balanced_Timetable_latest.xlsx
+++ b/Balanced_Timetable_latest.xlsx
@@ -5983,18 +5983,34 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CS264 (C206)</t>
+          <t>CS266 (C206)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS264 (C206)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+          <t>CS266 (C206)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>CS264 (C202)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>CS264 (C202)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>CS264 (C202)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>CS264 (C202)</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
     </row>
@@ -6031,9 +6047,21 @@
           <t>CS261 (C202)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CS264T (C203)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CS264T (C203)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CS264T (C203)</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
@@ -6057,17 +6085,17 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>CS264 (C206)</t>
+          <t>CS266 (C206)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>CS264 (C206)</t>
+          <t>CS266 (C206)</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>CS264 (C206)</t>
+          <t>CS266 (C206)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -6101,21 +6129,9 @@
           <t>CS261 (C202)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>CS264T (C202)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CS264T (C202)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>CS264T (C202)</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
@@ -6175,10 +6191,26 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CS266 (Lab-L208)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>CS266 (Lab-L208)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>CS266 (Lab-L208)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>CS266 (Lab-L208)</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>MA261 (C004)</t>
@@ -6241,8 +6273,16 @@
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CS264 (C202)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>CS264 (C202)</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
@@ -6410,26 +6450,30 @@
           <t>CS263 (C203)</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>CS264T (C205)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>CS264T (C205)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>CS264T (C205)</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS266 (Lab-L208)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>CS266 (Lab-L208)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>CS266 (Lab-L208)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>CS266 (Lab-L208)</t>
+        </is>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -6472,8 +6516,16 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS264 (C205)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>CS264 (C205)</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -6556,12 +6608,12 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS264 (C204)</t>
+          <t>CS266 (C204)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CS264 (C204)</t>
+          <t>CS266 (C204)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -6584,8 +6636,16 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CS264 (C205)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>CS264 (C205)</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -6612,7 +6672,11 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CS264T (C206)</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
@@ -6644,12 +6708,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS264 (C204)</t>
+          <t>CS266 (C204)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CS264 (C204)</t>
+          <t>CS266 (C204)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -7247,21 +7311,9 @@
           <t>CS263 (C205)</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>CS264T (C202)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>CS264T (C202)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>CS264T (C202)</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
@@ -7273,10 +7325,26 @@
           <t>CS261 (C203)</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>CS264 (C206)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>CS264 (C206)</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>CS264 (C206)</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>CS264 (C206)</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
     </row>
@@ -7308,21 +7376,29 @@
           <t>CS261T (C205)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CS264T (C206)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CS264T (C206)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CS264T (C206)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>CS264T (C206)</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>CS263 (C205)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>CS263 (C205)</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -7501,12 +7577,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS264 (C206)</t>
+          <t>CS263 (C205)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CS264 (C206)</t>
+          <t>CS263 (C205)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>

--- a/Balanced_Timetable_latest.xlsx
+++ b/Balanced_Timetable_latest.xlsx
@@ -5983,34 +5983,18 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CS266 (C206)</t>
+          <t>CS264 (C206)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CS266 (C206)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>CS264 (C202)</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>CS264 (C202)</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>CS264 (C202)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>CS264 (C202)</t>
-        </is>
-      </c>
+          <t>CS264 (C206)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
     </row>
@@ -6047,21 +6031,9 @@
           <t>CS261 (C202)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>CS264T (C203)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CS264T (C203)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>CS264T (C203)</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
@@ -6085,17 +6057,17 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>CS266 (C206)</t>
+          <t>CS264 (C206)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>CS266 (C206)</t>
+          <t>CS264 (C206)</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>CS266 (C206)</t>
+          <t>CS264 (C206)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -6129,9 +6101,21 @@
           <t>CS261 (C202)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CS264T (C202)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CS264T (C202)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CS264T (C202)</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
@@ -6191,26 +6175,10 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CS266 (Lab-L208)</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>CS266 (Lab-L208)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>CS266 (Lab-L208)</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>CS266 (Lab-L208)</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
           <t>MA261 (C004)</t>
@@ -6273,16 +6241,8 @@
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>CS264 (C202)</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>CS264 (C202)</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
@@ -6450,30 +6410,26 @@
           <t>CS263 (C203)</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CS264T (C205)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CS264T (C205)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>CS264T (C205)</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>CS266 (Lab-L208)</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>CS266 (Lab-L208)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>CS266 (Lab-L208)</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>CS266 (Lab-L208)</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -6516,16 +6472,8 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>CS264 (C205)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>CS264 (C205)</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -6608,12 +6556,12 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CS266 (C204)</t>
+          <t>CS264 (C204)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CS266 (C204)</t>
+          <t>CS264 (C204)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -6636,16 +6584,8 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>CS264 (C205)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>CS264 (C205)</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -6672,11 +6612,7 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CS264T (C206)</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
@@ -6708,12 +6644,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS266 (C204)</t>
+          <t>CS264 (C204)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CS266 (C204)</t>
+          <t>CS264 (C204)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -7311,9 +7247,21 @@
           <t>CS263 (C205)</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>CS264T (C202)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CS264T (C202)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>CS264T (C202)</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
@@ -7325,26 +7273,10 @@
           <t>CS261 (C203)</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>CS264 (C206)</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>CS264 (C206)</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>CS264 (C206)</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>CS264 (C206)</t>
-        </is>
-      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
     </row>
@@ -7376,29 +7308,21 @@
           <t>CS261T (C205)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CS264T (C206)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>CS264T (C206)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>CS264T (C206)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>CS264T (C206)</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS263 (C205)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>CS263 (C205)</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -7577,12 +7501,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>CS263 (C205)</t>
+          <t>CS264 (C206)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CS263 (C205)</t>
+          <t>CS264 (C206)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
